--- a/data/ship_costs.xlsx
+++ b/data/ship_costs.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="costs" sheetId="4" r:id="rId2"/>
+    <sheet name="data" sheetId="2" r:id="rId3"/>
+    <sheet name="scrubbers" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>T_MFO</t>
   </si>
@@ -125,11 +128,83 @@
   <si>
     <t>O_HYD</t>
   </si>
+  <si>
+    <t>Tills thesis</t>
+  </si>
+  <si>
+    <t>Shipping Market Review</t>
+  </si>
+  <si>
+    <t>compensated gross tonnage</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study on the use of ethyl and methyl alcohol as alternative fuels in shipping </t>
+  </si>
+  <si>
+    <t>Alternative Fuels for Marine Applications, IEA</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>MGO</t>
+  </si>
+  <si>
+    <t>HFO</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>power range kW</t>
+  </si>
+  <si>
+    <t>cost is for the engines and power and electrical equiptment</t>
+  </si>
+  <si>
+    <t>millions USD</t>
+  </si>
+  <si>
+    <t>*this is a educated guess</t>
+  </si>
+  <si>
+    <t>Dry bulk</t>
+  </si>
+  <si>
+    <t>General cargo</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Propulsion trends in bulk carriers</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,9 +234,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,6 +253,282 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532649</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="828675"/>
+          <a:ext cx="6009524" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>532726</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10382250" y="876300"/>
+          <a:ext cx="5390476" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>447009</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="4572000"/>
+          <a:ext cx="5323809" cy="3476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466062</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>84820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="5229225"/>
+          <a:ext cx="5304762" cy="7238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>532734</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3133725" y="9382125"/>
+          <a:ext cx="5323809" cy="3952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180273</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3095625" y="13020675"/>
+          <a:ext cx="5619048" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>256533</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>113929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="1143000"/>
+          <a:ext cx="5133333" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AK68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
@@ -7774,4 +8126,281 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>55000</v>
+      </c>
+      <c r="C6">
+        <v>9470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>120000</v>
+      </c>
+      <c r="C7">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>542</v>
+      </c>
+      <c r="C8">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>926</v>
+      </c>
+      <c r="C9">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>1275</v>
+      </c>
+      <c r="C10">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>815</v>
+      </c>
+      <c r="C11">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>815</v>
+      </c>
+      <c r="C12">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2">
+        <f>+(B$7+B$6*B8)/1000000</f>
+        <v>29.93</v>
+      </c>
+      <c r="C16" s="2">
+        <f>+(C$7+C$6*C8)/1000000</f>
+        <v>5.2527400000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" ref="B17:C20" si="0">+(B$7+B$6*B9)/1000000</f>
+        <v>51.05</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>8.8892199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>70.245000000000005</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>12.19425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>44.945</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>7.83805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>44.945</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>7.83805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:U68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/ship_costs.xlsx
+++ b/data/ship_costs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>T_MFO</t>
   </si>
@@ -197,13 +197,19 @@
   <si>
     <t>Source</t>
   </si>
+  <si>
+    <t>LNG engine costs</t>
+  </si>
+  <si>
+    <t>Economic assessment of liquefied natural gas (lng) as  a marine fuel for co2 carriers compared to marine gas oil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -237,7 +243,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8345,8 +8351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8370,6 +8376,16 @@
     <row r="27" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">

--- a/data/ship_costs.xlsx
+++ b/data/ship_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>T_MFO</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Alternative Fuels for Marine Applications, IEA</t>
   </si>
   <si>
-    <t>Container</t>
-  </si>
-  <si>
     <t>Fixed</t>
   </si>
   <si>
@@ -177,31 +174,121 @@
     <t>cost is for the engines and power and electrical equiptment</t>
   </si>
   <si>
-    <t>millions USD</t>
-  </si>
-  <si>
-    <t>*this is a educated guess</t>
-  </si>
-  <si>
-    <t>Dry bulk</t>
-  </si>
-  <si>
-    <t>General cargo</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Propulsion trends in bulk carriers</t>
-  </si>
-  <si>
-    <t>Source</t>
   </si>
   <si>
     <t>LNG engine costs</t>
   </si>
   <si>
     <t>Economic assessment of liquefied natural gas (lng) as  a marine fuel for co2 carriers compared to marine gas oil</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>$/kW</t>
+  </si>
+  <si>
+    <t>INV costs</t>
+  </si>
+  <si>
+    <t>O&amp;M costs</t>
+  </si>
+  <si>
+    <t>$/MWh</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>dwt</t>
+  </si>
+  <si>
+    <t>IMO min power level 1</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Calculating average dwt to then calculate average engine size</t>
+  </si>
+  <si>
+    <t>tanker</t>
+  </si>
+  <si>
+    <t>bulkcarrier</t>
+  </si>
+  <si>
+    <t>generalcargo</t>
+  </si>
+  <si>
+    <t>containership</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>average size</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>TEU</t>
+  </si>
+  <si>
+    <t>*calculated in ship_eff+transportwork</t>
+  </si>
+  <si>
+    <t>Propulsion trends in container vessels</t>
+  </si>
+  <si>
+    <t>teu</t>
+  </si>
+  <si>
+    <t>SMCR power</t>
+  </si>
+  <si>
+    <t>Propulsion trends in tankers</t>
+  </si>
+  <si>
+    <t>tankers</t>
+  </si>
+  <si>
+    <t>bulk carriers</t>
+  </si>
+  <si>
+    <t>assumption based on looking at 3rd IMO study</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>*assume same as LNG</t>
+  </si>
+  <si>
+    <t>*Cost-Effective Choices of Marine Fuels in a Carbon-Constrained World: Results from a Global Energy Mode</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>€/kW</t>
+  </si>
+  <si>
+    <t>million €</t>
   </si>
 </sst>
 </file>
@@ -240,10 +327,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,7 +349,3439 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>dry bulk</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.32624584426946629"/>
+                  <c:y val="0.125"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>costs!$R$7:$R$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>costs!$S$7:$S$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>3756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9478</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17374</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19579</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C1C-4C74-ACF5-CA08DEEBB8AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406781944"/>
+        <c:axId val="406779976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406781944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>dwt</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406779976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406779976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>IMO min power level 1 [kW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406781944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>containership</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.42713167104111988"/>
+                  <c:y val="0.10974372995042286"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>costs!$U$7:$U$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>costs!$V$7:$V$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4870</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53900</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>91500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB90-43A8-8CF0-B2CAC31EC85D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="377042088"/>
+        <c:axId val="377044056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="377042088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>teu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377044056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="377044056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SMCR power [kW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377042088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>tanker</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>costs!$X$7:$X$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>319000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>360000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>560000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>costs!$Y$7:$Y$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C419-43AC-9598-63854CB1F847}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381421928"/>
+        <c:axId val="381422256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381421928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>dwt</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381422256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="381422256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SMCR power [kW]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381421928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -418,15 +3938,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>532734</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>190006</xdr:rowOff>
+      <xdr:colOff>494634</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>170956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -443,7 +3963,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133725" y="9382125"/>
+          <a:off x="3095625" y="12411075"/>
           <a:ext cx="5323809" cy="3952381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -455,16 +3975,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>180273</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>28127</xdr:rowOff>
+      <xdr:colOff>75498</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>75752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -481,7 +4001,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3095625" y="13020675"/>
+          <a:off x="2990850" y="13830300"/>
           <a:ext cx="5619048" cy="3580952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -494,7 +4014,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -802,8 +4322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AK68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,109 +4440,144 @@
         <v>2011</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <f>+costs!B26</f>
+        <v>7.4198708998275</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <f>+costs!C26</f>
+        <v>5.5508911636361518</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <f>+costs!D26</f>
+        <v>1.1427212999999998</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <f>+costs!E26</f>
+        <v>15.731757034199999</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <f>+costs!F26</f>
+        <v>2.4055</v>
       </c>
       <c r="H4">
-        <v>1.5</v>
+        <f>+costs!B27</f>
+        <v>12.6044879211075</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <f>+costs!C27</f>
+        <v>9.4113601799392548</v>
       </c>
       <c r="J4">
-        <v>1.5</v>
+        <f>+costs!D27</f>
+        <v>1.8800589000000001</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <f>+costs!E27</f>
+        <v>26.805238032600002</v>
       </c>
       <c r="L4">
-        <v>1.5</v>
+        <f>+costs!F27</f>
+        <v>4.0374999999999996</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <f>+costs!B28</f>
+        <v>17.316548703468751</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <f>+costs!C28</f>
+        <v>12.9199635306939</v>
       </c>
       <c r="O4">
-        <v>1.5</v>
+        <f>+costs!D28</f>
+        <v>2.5501912500000001</v>
       </c>
       <c r="P4">
-        <v>1.5</v>
+        <f>+costs!E28</f>
+        <v>36.8694173775</v>
       </c>
       <c r="Q4">
-        <v>1.5</v>
+        <f>+costs!F28</f>
+        <v>5.5207499999999996</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <f>+costs!B31</f>
+        <v>999</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <f>+costs!C31</f>
+        <v>999</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <f>+costs!D31</f>
+        <v>999</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <f>+costs!E31</f>
+        <v>999</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <f>+costs!F31</f>
+        <v>999</v>
       </c>
       <c r="W4">
-        <v>1.5</v>
+        <f>+costs!B29</f>
+        <v>11.10580956339375</v>
       </c>
       <c r="X4">
-        <v>1.5</v>
+        <f>+costs!C29</f>
+        <v>8.2954433549141395</v>
       </c>
       <c r="Y4">
-        <v>1.5</v>
+        <f>+costs!D29</f>
+        <v>1.66692225</v>
       </c>
       <c r="Z4">
-        <v>1.5</v>
+        <f>+costs!E29</f>
+        <v>23.604309931499998</v>
       </c>
       <c r="AA4">
-        <v>1.5</v>
+        <f>+costs!F29</f>
+        <v>3.56575</v>
       </c>
       <c r="AB4">
-        <v>1.5</v>
+        <f>+costs!B32</f>
+        <v>17.316548703468751</v>
       </c>
       <c r="AC4">
-        <v>1.5</v>
+        <f>+costs!C32</f>
+        <v>12.9199635306939</v>
       </c>
       <c r="AD4">
-        <v>1.5</v>
+        <f>+costs!D32</f>
+        <v>2.5501912500000001</v>
       </c>
       <c r="AE4">
-        <v>1.5</v>
+        <f>+costs!E32</f>
+        <v>36.8694173775</v>
       </c>
       <c r="AF4">
-        <v>1.5</v>
+        <f>+costs!F32</f>
+        <v>5.5207499999999996</v>
       </c>
       <c r="AG4">
-        <v>2</v>
+        <f>+costs!B33</f>
+        <v>20.052890125950839</v>
       </c>
       <c r="AH4">
-        <v>2</v>
+        <f>+costs!C33</f>
+        <v>14.961561541440341</v>
       </c>
       <c r="AI4">
-        <v>2</v>
+        <f>+costs!D33</f>
+        <v>2.9531695843160377</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
+        <f>+costs!E33</f>
+        <v>999</v>
       </c>
       <c r="AK4">
-        <v>2</v>
+        <f>+costs!F33</f>
+        <v>6.3931326650943392</v>
       </c>
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.25">
@@ -8136,214 +11691,968 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A2:Y34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="R2" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>50</v>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>120000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <f>+B4*0.85</f>
+        <v>102000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>542</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D9" si="0">+B5*0.85</f>
+        <v>460.7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>926</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>787.1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>1275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1083.75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7">
+        <v>5000</v>
+      </c>
+      <c r="S7">
+        <v>3756</v>
+      </c>
+      <c r="U7">
+        <v>400</v>
+      </c>
+      <c r="V7">
+        <v>3000</v>
+      </c>
+      <c r="X7">
+        <v>5000</v>
+      </c>
+      <c r="Y7">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>815</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>692.75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8">
+        <v>8000</v>
+      </c>
+      <c r="S8">
+        <v>3985</v>
+      </c>
+      <c r="U8">
+        <v>600</v>
+      </c>
+      <c r="V8">
+        <v>4870</v>
+      </c>
+      <c r="X8">
+        <v>8000</v>
+      </c>
+      <c r="Y8">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>815</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>692.75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9">
+        <v>10000</v>
+      </c>
+      <c r="S9">
+        <v>4137</v>
+      </c>
+      <c r="U9">
+        <v>800</v>
+      </c>
+      <c r="V9">
+        <v>6700</v>
+      </c>
+      <c r="X9">
+        <v>10000</v>
+      </c>
+      <c r="Y9">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>20000</v>
+      </c>
+      <c r="S10">
+        <v>3937</v>
+      </c>
+      <c r="U10">
+        <v>1000</v>
+      </c>
+      <c r="V10">
+        <v>8800</v>
+      </c>
+      <c r="X10">
+        <v>15000</v>
+      </c>
+      <c r="Y10">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11">
+        <v>30000</v>
+      </c>
+      <c r="S11">
+        <v>5663</v>
+      </c>
+      <c r="U11">
+        <v>1200</v>
+      </c>
+      <c r="V11">
+        <v>10500</v>
+      </c>
+      <c r="X11">
+        <v>20000</v>
+      </c>
+      <c r="Y11">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13">
+        <v>35000</v>
+      </c>
+      <c r="S13">
+        <v>6045</v>
+      </c>
+      <c r="U13">
+        <v>1600</v>
+      </c>
+      <c r="V13">
+        <v>14000</v>
+      </c>
+      <c r="X13">
+        <v>25000</v>
+      </c>
+      <c r="Y13">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>144150</v>
+      </c>
+      <c r="C14">
+        <v>116062</v>
+      </c>
+      <c r="D14">
+        <v>5333</v>
+      </c>
+      <c r="E14">
+        <v>3998</v>
+      </c>
+      <c r="R14">
+        <v>45000</v>
+      </c>
+      <c r="S14">
+        <v>6396</v>
+      </c>
+      <c r="U14">
+        <v>2000</v>
+      </c>
+      <c r="V14">
+        <v>17700</v>
+      </c>
+      <c r="X14">
+        <v>30000</v>
+      </c>
+      <c r="Y14">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>55000</v>
+      </c>
+      <c r="S15">
+        <v>7571</v>
+      </c>
+      <c r="U15">
+        <v>2500</v>
+      </c>
+      <c r="V15">
+        <v>21700</v>
+      </c>
+      <c r="X15">
+        <v>35000</v>
+      </c>
+      <c r="Y15">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>80000</v>
+      </c>
+      <c r="S16">
+        <v>9478</v>
+      </c>
+      <c r="U16">
+        <v>2800</v>
+      </c>
+      <c r="V16">
+        <v>25000</v>
+      </c>
+      <c r="X16">
+        <v>40000</v>
+      </c>
+      <c r="Y16">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>84000</v>
+      </c>
+      <c r="S17">
+        <v>9784</v>
+      </c>
+      <c r="U17">
+        <v>3500</v>
+      </c>
+      <c r="V17">
+        <v>31300</v>
+      </c>
+      <c r="X17">
+        <v>50000</v>
+      </c>
+      <c r="Y17">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>100000</v>
+      </c>
+      <c r="S18">
+        <v>11004</v>
+      </c>
+      <c r="U18">
+        <v>4000</v>
+      </c>
+      <c r="V18">
+        <v>35500</v>
+      </c>
+      <c r="X18">
+        <v>60000</v>
+      </c>
+      <c r="Y18">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>120000</v>
+      </c>
+      <c r="S19">
+        <v>12530</v>
+      </c>
+      <c r="U19">
+        <v>4500</v>
+      </c>
+      <c r="V19">
+        <v>40100</v>
+      </c>
+      <c r="X19">
+        <v>70000</v>
+      </c>
+      <c r="Y19">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R20">
+        <v>175000</v>
+      </c>
+      <c r="S20">
+        <v>15904</v>
+      </c>
+      <c r="U20">
+        <v>5100</v>
+      </c>
+      <c r="V20">
+        <v>45000</v>
+      </c>
+      <c r="X20">
+        <v>85000</v>
+      </c>
+      <c r="Y20">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3">
+        <f>+-0.00000003*B14*B14+0.0828*B14+4572</f>
+        <v>15884.243324999999</v>
+      </c>
+      <c r="C21" s="3">
+        <f>+-0.00000006*C14*C14+0.0813*C14+3199.8</f>
+        <v>11827.41732936</v>
+      </c>
+      <c r="D21">
+        <v>2259</v>
+      </c>
+      <c r="E21" s="3">
+        <f>+-0.0003*E14*E14+9.6614*E14+95.03</f>
+        <v>33926.106</v>
+      </c>
+      <c r="F21">
+        <v>5000</v>
+      </c>
+      <c r="R21">
+        <v>205000</v>
+      </c>
+      <c r="S21">
+        <v>17374</v>
+      </c>
+      <c r="U21">
+        <v>5500</v>
+      </c>
+      <c r="V21">
+        <v>49800</v>
+      </c>
+      <c r="X21">
+        <v>105000</v>
+      </c>
+      <c r="Y21">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>250000</v>
+      </c>
+      <c r="S22">
+        <v>19579</v>
+      </c>
+      <c r="U22">
+        <v>6500</v>
+      </c>
+      <c r="V22">
+        <v>53900</v>
+      </c>
+      <c r="X22">
+        <v>115000</v>
+      </c>
+      <c r="Y22">
+        <v>14300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23">
+        <v>320000</v>
+      </c>
+      <c r="S23">
+        <v>23009</v>
+      </c>
+      <c r="U23">
+        <v>8000</v>
+      </c>
+      <c r="V23">
+        <v>60000</v>
+      </c>
+      <c r="X23">
+        <v>125000</v>
+      </c>
+      <c r="Y23">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24">
+        <v>400000</v>
+      </c>
+      <c r="S24">
+        <v>26929</v>
+      </c>
+      <c r="U24">
+        <v>10000</v>
+      </c>
+      <c r="V24">
+        <v>67700</v>
+      </c>
+      <c r="X24">
+        <v>150000</v>
+      </c>
+      <c r="Y24">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
+      <c r="U25">
+        <v>12500</v>
+      </c>
+      <c r="V25">
+        <v>74000</v>
+      </c>
+      <c r="X25">
+        <v>165000</v>
+      </c>
+      <c r="Y25">
+        <v>16800</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>55000</v>
-      </c>
-      <c r="C6">
-        <v>9470</v>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2">
+        <f>+($D$4+$D5*B$21)/1000000</f>
+        <v>7.4198708998275</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:F26" si="1">+($D$4+$D5*C$21)/1000000</f>
+        <v>5.5508911636361518</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>1.1427212999999998</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>15.731757034199999</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4055</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+      <c r="U26">
+        <v>14000</v>
+      </c>
+      <c r="V26">
+        <v>78000</v>
+      </c>
+      <c r="X26">
+        <v>260000</v>
+      </c>
+      <c r="Y26">
+        <v>24100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7">
-        <v>120000</v>
-      </c>
-      <c r="C7">
-        <v>120000</v>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ref="B27:F27" si="2">+($D$4+$D6*B$21)/1000000</f>
+        <v>12.6044879211075</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>9.4113601799392548</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8800589000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>26.805238032600002</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0374999999999996</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+      <c r="U27">
+        <v>15500</v>
+      </c>
+      <c r="V27">
+        <v>84000</v>
+      </c>
+      <c r="X27">
+        <v>280000</v>
+      </c>
+      <c r="Y27">
+        <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8">
-        <v>542</v>
-      </c>
-      <c r="C8">
-        <v>542</v>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" ref="B28:F28" si="3">+($D$4+$D7*B$21)/1000000</f>
+        <v>17.316548703468751</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="3"/>
+        <v>12.9199635306939</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5501912500000001</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="3"/>
+        <v>36.8694173775</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="3"/>
+        <v>5.5207499999999996</v>
+      </c>
+      <c r="U28">
+        <v>18000</v>
+      </c>
+      <c r="V28">
+        <v>91500</v>
+      </c>
+      <c r="X28">
+        <v>300000</v>
+      </c>
+      <c r="Y28">
+        <v>25900</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>926</v>
-      </c>
-      <c r="C9">
-        <v>926</v>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" ref="B29:F29" si="4">+($D$4+$D8*B$21)/1000000</f>
+        <v>11.10580956339375</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="4"/>
+        <v>8.2954433549141395</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="4"/>
+        <v>1.66692225</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="4"/>
+        <v>23.604309931499998</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="4"/>
+        <v>3.56575</v>
+      </c>
+      <c r="X29">
+        <v>319000</v>
+      </c>
+      <c r="Y29">
+        <v>27100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>1275</v>
-      </c>
-      <c r="C10">
-        <v>1275</v>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" ref="B30:F30" si="5">+($D$4+$D9*B$21)/1000000</f>
+        <v>11.10580956339375</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="5"/>
+        <v>8.2954433549141395</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="5"/>
+        <v>1.66692225</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="5"/>
+        <v>23.604309931499998</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="5"/>
+        <v>3.56575</v>
+      </c>
+      <c r="X30">
+        <v>360000</v>
+      </c>
+      <c r="Y30">
+        <v>30600</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11">
-        <v>815</v>
-      </c>
-      <c r="C11">
-        <v>815</v>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31">
+        <v>999</v>
+      </c>
+      <c r="C31">
+        <v>999</v>
+      </c>
+      <c r="D31">
+        <v>999</v>
+      </c>
+      <c r="E31">
+        <v>999</v>
+      </c>
+      <c r="F31">
+        <v>999</v>
+      </c>
+      <c r="X31">
+        <v>440000</v>
+      </c>
+      <c r="Y31">
+        <v>34200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12">
-        <v>815</v>
-      </c>
-      <c r="C12">
-        <v>815</v>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="2">
+        <f>+B28</f>
+        <v>17.316548703468751</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" ref="C32:F32" si="6">+C28</f>
+        <v>12.9199635306939</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="6"/>
+        <v>2.5501912500000001</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="6"/>
+        <v>36.8694173775</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="6"/>
+        <v>5.5207499999999996</v>
+      </c>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="X32">
+        <v>560000</v>
+      </c>
+      <c r="Y32">
+        <v>42200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>51</v>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="2">
+        <f>+(98200/84800)*B28</f>
+        <v>20.052890125950839</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" ref="C33:F33" si="7">+(98200/84800)*C28</f>
+        <v>14.961561541440341</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="7"/>
+        <v>2.9531695843160377</v>
+      </c>
+      <c r="E33">
+        <v>999</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="7"/>
+        <v>6.3931326650943392</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2">
-        <f>+(B$7+B$6*B8)/1000000</f>
-        <v>29.93</v>
-      </c>
-      <c r="C16" s="2">
-        <f>+(C$7+C$6*C8)/1000000</f>
-        <v>5.2527400000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" ref="B17:C20" si="0">+(B$7+B$6*B9)/1000000</f>
-        <v>51.05</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>8.8892199999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>70.245000000000005</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>12.19425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>44.945</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>7.83805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>44.945</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>7.83805</v>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8351,7 +12660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
@@ -8380,12 +12689,12 @@
     </row>
     <row r="47" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R47" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R48" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
